--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2302.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2302.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.294743022034922</v>
+        <v>1.132355213165283</v>
       </c>
       <c r="B1">
-        <v>2.696006112092183</v>
+        <v>2.147614240646362</v>
       </c>
       <c r="C1">
-        <v>2.400819628650846</v>
+        <v>2.744754552841187</v>
       </c>
       <c r="D1">
-        <v>2.643967352629891</v>
+        <v>1.558014750480652</v>
       </c>
       <c r="E1">
-        <v>3.298277271427488</v>
+        <v>0.8219135403633118</v>
       </c>
     </row>
   </sheetData>
